--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466817.0764096983</v>
+        <v>464378.6033099513</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>197.5944784271064</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>298.9787503760083</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>193.0439640562773</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>301.0138075510043</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>85.78789945459279</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>267.8635071306609</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>103.2489315088143</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>323.6637250476221</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>20.62988165152444</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>122.4424591077293</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329281</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>387.3559646600291</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>101.1471539705512</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0.6293919502455964</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819354</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699841</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922764</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>150.3341561773417</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>72.26558381699606</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890402</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465731</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>99.97427419834172</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>62.36981422366684</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892411</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>139.1630968205461</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419834287</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238239</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>31.26260713376574</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891636986</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>141.1329474887994</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>101.6969570046962</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>261.5060195193323</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>261.5060195193323</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>261.5060195193323</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.211703591923</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.211703591923</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>396.7094242895083</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C4" t="n">
-        <v>396.7094242895083</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D4" t="n">
-        <v>396.7094242895083</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E4" t="n">
-        <v>396.7094242895083</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F4" t="n">
-        <v>396.7094242895083</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4522,16 +4522,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310558</v>
+        <v>609.6550370402499</v>
       </c>
       <c r="X4" t="n">
-        <v>617.5020034330385</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="Y4" t="n">
-        <v>396.7094242895083</v>
+        <v>381.6654861422326</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2049.196691315587</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C5" t="n">
-        <v>1680.234174375175</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1148.09812134261</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1148.09812134261</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649823</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379709</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2435.796531379709</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2435.796531379709</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.9449278938906</v>
+        <v>528.5554336401428</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4744,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X7" t="n">
-        <v>859.3859718676605</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.5933927241304</v>
+        <v>528.5554336401428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1506.363819949361</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1506.363819949361</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D8" t="n">
-        <v>1148.098121342611</v>
+        <v>953.6440892486878</v>
       </c>
       <c r="E8" t="n">
-        <v>762.3098687443662</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>755.3643679951628</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.963660013483</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>67.14786587687595</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>67.14786587687595</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>617.5020034330389</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>396.7094242895088</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,49 +5042,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452619</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718135</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263534</v>
+        <v>513.8536007400741</v>
       </c>
       <c r="C13" t="n">
-        <v>929.730977335627</v>
+        <v>344.9174178121672</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232913</v>
+        <v>344.9174178121672</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408981</v>
+        <v>197.0043242297741</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429878</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2045.209862480151</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.525374274264</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237304</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237304</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093774</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452619</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026078</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820191</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.01105178323</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,64 +5501,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>700.7543264856266</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856266</v>
+        <v>344.917417812168</v>
       </c>
       <c r="D19" t="n">
-        <v>550.6376870732909</v>
+        <v>194.8007783998322</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998322</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2383.963271233122</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2164.361806256064</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1875.286579600261</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V19" t="n">
-        <v>1620.602091394374</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W19" t="n">
-        <v>1331.184921357414</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X19" t="n">
-        <v>1103.195370459396</v>
+        <v>916.2946447138447</v>
       </c>
       <c r="Y19" t="n">
-        <v>882.4027913158664</v>
+        <v>695.5020655703146</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.345997432834</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>923.4098145049275</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>773.2931750925917</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E22" t="n">
-        <v>625.3800815101986</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.776592304621</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1494.787041406604</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1273.994462263074</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,16 +6005,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.853600740076</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121691</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998334</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998334</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998334</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138459</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703157</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,34 +6212,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2415.384692536053</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1358.188536579448</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="32">
@@ -6701,7 +6701,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,16 +6838,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277345</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277345</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038334</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>185.1393632363742</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>82.95161969625342</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.26526345294711</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>135.8503182119024</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294688</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>213.9188905722481</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382458953</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>118.6564717779777</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>6.257951202385101</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336592</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409392598</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.11263957635595</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.72409101823865</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>145.3900508477916</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823506</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>961526.7318622568</v>
+        <v>961526.7318622558</v>
       </c>
     </row>
     <row r="3">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.09686312</v>
+        <v>354580.0968631196</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="F2" t="n">
-        <v>383394.6348527532</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="G2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="H2" t="n">
+        <v>383394.6348527531</v>
+      </c>
+      <c r="I2" t="n">
+        <v>383394.6348527531</v>
+      </c>
+      <c r="J2" t="n">
         <v>383394.6348527529</v>
-      </c>
-      <c r="I2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="J2" t="n">
-        <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
         <v>383394.634852753</v>
@@ -26347,10 +26347,10 @@
         <v>383394.634852753</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527527</v>
       </c>
       <c r="P2" t="n">
         <v>383394.6348527528</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47189.23934546757</v>
+        <v>47189.23934546713</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26439,10 +26439,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26479,7 +26479,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1129287.828771333</v>
+        <v>-1129474.222159873</v>
       </c>
       <c r="C6" t="n">
         <v>192316.7770660088</v>
       </c>
       <c r="D6" t="n">
-        <v>192316.7770660087</v>
+        <v>192316.7770660082</v>
       </c>
       <c r="E6" t="n">
-        <v>-53697.44506529007</v>
+        <v>-53732.1829907263</v>
       </c>
       <c r="F6" t="n">
-        <v>271715.0167420649</v>
+        <v>271680.2788166288</v>
       </c>
       <c r="G6" t="n">
-        <v>271715.0167420645</v>
+        <v>271680.2788166292</v>
       </c>
       <c r="H6" t="n">
-        <v>271715.0167420646</v>
+        <v>271680.2788166291</v>
       </c>
       <c r="I6" t="n">
-        <v>271715.0167420644</v>
+        <v>271680.2788166291</v>
       </c>
       <c r="J6" t="n">
-        <v>54183.81434478723</v>
+        <v>54149.07641935142</v>
       </c>
       <c r="K6" t="n">
-        <v>271715.0167420646</v>
+        <v>271680.2788166291</v>
       </c>
       <c r="L6" t="n">
-        <v>271715.0167420646</v>
+        <v>271680.2788166289</v>
       </c>
       <c r="M6" t="n">
-        <v>186659.988806553</v>
+        <v>186625.2508811171</v>
       </c>
       <c r="N6" t="n">
-        <v>271715.0167420646</v>
+        <v>271680.2788166289</v>
       </c>
       <c r="O6" t="n">
-        <v>271715.0167420644</v>
+        <v>271680.2788166287</v>
       </c>
       <c r="P6" t="n">
-        <v>271715.0167420644</v>
+        <v>271680.2788166289</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>101.5638003310431</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>68.7172931274647</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>80.23790880443543</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>18.65949120593012</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>251.4341101118687</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>83.21232069408939</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>205.0797737375127</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>96.14219424436551</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>257.6521825393337</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>23.56576099342436</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>45.28680867601793</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.3964163087826</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.25812187936948e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-7.805184061879151e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.933294279645717e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29253,7 +29253,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>416.4300581532615</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963288</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>732.4825987614906</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048113</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33755,7 +33755,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34211,16 +34211,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164546</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>274.2960242312432</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164546</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>590.3485648394724</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>205.0040068187898</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36993,7 +36993,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409634</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
